--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1554155.688215943</v>
+        <v>1659094.918391308</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10409301.94270919</v>
+        <v>10425619.38976982</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.2229096522925</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292584</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>87.90030568066591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247737</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734125409</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004727</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>115.0952770674517</v>
       </c>
       <c r="X4" t="n">
-        <v>207.050164183108</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.5957429218807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>182.6166536273421</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.0543928093647</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>97.50638139010741</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>379.6746187189619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>39.32117841962666</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>25.63986740301768</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>110.9341044128762</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>90.14863908058081</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346636</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060467</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560554</v>
       </c>
     </row>
     <row r="21">
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922628</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>245.8796921214428</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>176.7621441121466</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>172.026033500079</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2609,13 +2611,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="I28" t="n">
-        <v>40.96105405076133</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>114.5006452705931</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.30088041042183</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>26.05480806223734</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.1659031415427</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>46.86766651429451</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839473</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912091</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450756</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>1555.462343896831</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180641</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180641</v>
+        <v>1181.996585635751</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031483</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158139</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381.6654861422326</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143257</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143257</v>
+        <v>619.8914390106346</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143257</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.338775876041</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088494</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846022</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242374</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621305</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>590.80706612517</v>
+        <v>997.9976293209877</v>
       </c>
       <c r="X4" t="n">
-        <v>381.6654861422326</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="Y4" t="n">
-        <v>381.6654861422326</v>
+        <v>770.0080784229704</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1432.831501090108</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265602</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2994.542934265602</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>2621.077176004522</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="Y5" t="n">
-        <v>2230.93784402871</v>
+        <v>1819.431341154229</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031485</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>271.9735439263277</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835076</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W7" t="n">
-        <v>902.4041387981149</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="X7" t="n">
-        <v>674.4145879000976</v>
+        <v>1025.55917489883</v>
       </c>
       <c r="Y7" t="n">
-        <v>453.6220087565674</v>
+        <v>804.7665957552998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2342.88890195346</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C8" t="n">
-        <v>1973.926385013048</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1615.660686406298</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3285.887459569145</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993394</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="X8" t="n">
-        <v>3119.628073993394</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y8" t="n">
-        <v>2729.488742017582</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>510.7590362090546</v>
+        <v>529.5785797246257</v>
       </c>
       <c r="C10" t="n">
-        <v>510.7590362090546</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="D10" t="n">
         <v>360.6423967967188</v>
@@ -4954,25 +4956,25 @@
         <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4990,22 +4992,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1503.64282449345</v>
+        <v>1548.361223971665</v>
       </c>
       <c r="V10" t="n">
-        <v>1248.958336287563</v>
+        <v>1293.676735765778</v>
       </c>
       <c r="W10" t="n">
-        <v>959.541166250602</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X10" t="n">
-        <v>731.5516153525847</v>
+        <v>776.2700148307999</v>
       </c>
       <c r="Y10" t="n">
-        <v>510.7590362090546</v>
+        <v>555.4774356872698</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5035,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,31 +5044,31 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,13 +5129,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.530292372932</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>853.5941094450255</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>703.4774700326898</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>555.5643764502967</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>408.6744289523863</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.971336346702</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.178757203172</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,64 +5412,64 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
         <v>2018.514925172274</v>
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,25 +5503,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,25 +5530,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.66716026352</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356134</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232776</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408845</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429742</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5905,55 +5907,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.097755135313</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>2018.514925172268</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1729.097755135307</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1501.10820423729</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1280.31562509376</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6221,28 +6223,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6257,10 +6259,10 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3301.825327801251</v>
+        <v>2757.723669558404</v>
       </c>
       <c r="C28" t="n">
-        <v>3132.889144873344</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="D28" t="n">
-        <v>2982.772505461009</v>
+        <v>2438.670847218161</v>
       </c>
       <c r="E28" t="n">
-        <v>2834.859411878615</v>
+        <v>2438.670847218161</v>
       </c>
       <c r="F28" t="n">
-        <v>2687.969464380705</v>
+        <v>2438.670847218161</v>
       </c>
       <c r="G28" t="n">
-        <v>2520.773365095585</v>
+        <v>2438.670847218161</v>
       </c>
       <c r="H28" t="n">
-        <v>2379.061533937783</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866307</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296631</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.61201282217</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.01060699811</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729145</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389153</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098138</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671697</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q28" t="n">
         <v>4690.833152398593</v>
@@ -6418,16 +6420,16 @@
         <v>3932.255922673038</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.255922673038</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W28" t="n">
-        <v>3932.255922673038</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X28" t="n">
-        <v>3704.266371775021</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y28" t="n">
-        <v>3483.473792631491</v>
+        <v>2939.372134388644</v>
       </c>
     </row>
     <row r="29">
@@ -6455,10 +6457,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6482,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>2757.723669558404</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>2438.670847218161</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>2939.372134388644</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6737,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,19 +6779,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
         <v>2129.438138565707</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>800.6374272687975</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>639.6425904082687</v>
+        <v>2798.451385364349</v>
       </c>
       <c r="C40" t="n">
-        <v>470.7064074803617</v>
+        <v>2629.515202436442</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4664.51516445694</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4481.660330111844</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4262.058865134785</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>3972.983638478983</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>3718.299150273097</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3428.881980236136</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>3200.892429338119</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>2980.099850194589</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>3042.233551722367</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>3639.612039348919</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>4267.210002903525</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>4267.210002903525</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1870.601831589881</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311365</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2404.986360578632</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2185.384895601574</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1896.309668945771</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1641.625180739884</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1352.208010702924</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1124.218459804906</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613763</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>75.37549921168804</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23707,10 +23709,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>114.1584408891644</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.0033420516642</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24178,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>40.30478226780133</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>75.37549921168142</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>45.37941682720927</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24497,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>40.32043864788469</v>
       </c>
       <c r="I28" t="n">
-        <v>40.3047822678042</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844822997</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>124.5310997715155</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>40.32043864788434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.0185712477015</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>911685.1623608844</v>
+        <v>920003.8608623835</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>911685.1623608844</v>
+        <v>920003.8608623835</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691795</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="F2" t="n">
-        <v>524645.2897985037</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
@@ -26341,16 +26343,16 @@
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985041</v>
       </c>
-      <c r="M2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985042</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727594</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403383</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099822</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819089</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810774</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
+        <v>136726.2736921025</v>
+      </c>
+      <c r="D4" t="n">
         <v>88524.2351281078</v>
       </c>
-      <c r="D4" t="n">
-        <v>88524.23512810783</v>
-      </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
@@ -26451,13 +26453,13 @@
         <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26482,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-991525.7710053101</v>
+        <v>-810738.679296083</v>
       </c>
       <c r="C6" t="n">
-        <v>337218.9747222839</v>
+        <v>304013.1042798372</v>
       </c>
       <c r="D6" t="n">
-        <v>337218.9747222833</v>
+        <v>144591.8342819449</v>
       </c>
       <c r="E6" t="n">
-        <v>88773.09781048517</v>
+        <v>88773.09781048483</v>
       </c>
       <c r="F6" t="n">
-        <v>414185.55961784</v>
+        <v>414185.5596178403</v>
       </c>
       <c r="G6" t="n">
-        <v>414185.5596178403</v>
+        <v>414185.5596178401</v>
       </c>
       <c r="H6" t="n">
-        <v>414185.5596178403</v>
+        <v>414185.5596178404</v>
       </c>
       <c r="I6" t="n">
-        <v>414185.5596178404</v>
+        <v>414185.5596178402</v>
       </c>
       <c r="J6" t="n">
-        <v>196654.3572205627</v>
+        <v>246580.381807858</v>
       </c>
       <c r="K6" t="n">
         <v>414185.5596178403</v>
       </c>
       <c r="L6" t="n">
-        <v>414185.5596178404</v>
+        <v>365891.5896096494</v>
       </c>
       <c r="M6" t="n">
-        <v>329130.5316823285</v>
+        <v>329130.5316823286</v>
       </c>
       <c r="N6" t="n">
-        <v>414185.5596178403</v>
+        <v>414185.5596178405</v>
       </c>
       <c r="O6" t="n">
         <v>414185.5596178403</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022931</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000381</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022545</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298.5109320111881</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>261.3406630367471</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>171.4277212691393</v>
       </c>
       <c r="X4" t="n">
-        <v>18.65949120592913</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.1380987415999</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>182.6562381436654</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>60.19242828926312</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>128.2032739989297</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.255751353299843</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>69.86658336854914</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>154.1921127789196</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>175.2777337927367</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
     </row>
     <row r="21">
@@ -28971,7 +28973,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>6.032981521760424e-12</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681601</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974801</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953991</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003814</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623197</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574999</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095028</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099063</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746417</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781693</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563571</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806958</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451122</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502568</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798533</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752262</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138799</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233479</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837928</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970253</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.610358400293</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987489</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238319</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898505</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430539</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702026</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098822</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883117</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086003</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802171</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895882</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712221</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553038</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112301</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31847,31 +31849,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>620.1193660647489</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547062</v>
+        <v>616.5397119226047</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786837</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460043</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868571</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>400.8433522134843</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201444</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,13 +33028,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M27" t="n">
-        <v>518.439455159358</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,16 +33262,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N33" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33907,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33971,28 +33973,28 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>399.4395445221152</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34211,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>468.9317632522989</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687128</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554008</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923325</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302272</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129119</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882196</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193722</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037198</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222495</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597725</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340057</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013295</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004595</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525809</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306631</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701983</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.633379393484</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675403</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451106</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789377</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>477.9853321427306</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748321</v>
+        <v>477.9853321427306</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342392</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243176</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>266.868944799154</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,13 +36676,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M27" t="n">
-        <v>376.3054212373396</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36771,7 +36773,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998944</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>265.4651371077849</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37859,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>330.3773834724247</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1659094.918391308</v>
+        <v>1654999.276886543</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>64.98765364255827</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>87.90030568066591</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>69.63957399764126</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>115.0952770674517</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>182.6166536273421</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -916,7 +916,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>20.32598300632786</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172146</v>
       </c>
       <c r="X7" t="n">
-        <v>97.50638139010741</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>285.8224305096709</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.32117841962666</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.63986740301768</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>61.74094675585706</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G13" t="n">
-        <v>27.02919805176204</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>137.9792024346636</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>81.11398998229679</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>55.52079624060467</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560554</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922628</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>176.7621441121466</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>172.026033500079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>99.9742741983392</v>
+        <v>13.72582864853728</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>74.96337793487972</v>
       </c>
       <c r="E31" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5006452705931</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>26.05480806223734</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>46.86766651429451</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1181.996585635751</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.996585635751</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>116.8908811564458</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,7 +4360,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4369,13 +4369,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1555.462343896831</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1181.996585635751</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1181.996585635751</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100999</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.0080784229704</v>
+        <v>903.4321187182921</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229704</v>
+        <v>734.4959357903853</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106346</v>
+        <v>584.3792963780495</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282415</v>
+        <v>436.4662027956564</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>289.576255297746</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>121.5897906060246</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V4" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W4" t="n">
-        <v>997.9976293209877</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="X4" t="n">
-        <v>770.0080784229704</v>
+        <v>1305.873162692062</v>
       </c>
       <c r="Y4" t="n">
-        <v>770.0080784229704</v>
+        <v>1085.080583548532</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1432.831501090108</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
         <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230815</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2541.808032434166</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2541.808032434166</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2288.226971698346</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1957.164084354775</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1604.395429084661</v>
       </c>
       <c r="X5" t="n">
-        <v>2209.570673130041</v>
+        <v>1230.929670823581</v>
       </c>
       <c r="Y5" t="n">
-        <v>1819.431341154229</v>
+        <v>1230.929670823581</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380239</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.1181309250601</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>623.1181309250601</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>473.0014915127243</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312189</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1124.050469232272</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1025.55917489883</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>804.7665957552998</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1156.082344952776</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>770.2940923545314</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4819,37 +4819,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3285.887459569145</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3079.909711953368</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3079.909711953368</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3079.909711953368</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>3079.909711953368</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>3079.909711953368</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.5785797246257</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>360.6423967967188</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967188</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971665</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765778</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307999</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y10" t="n">
-        <v>555.4774356872698</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969299</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5524,40 +5524,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
@@ -5606,16 +5606,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925226</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101294</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.66716026352</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356134</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408845</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429742</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5907,55 +5907,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172268</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135307</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.10820423729</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.31562509376</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6144,55 +6144,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558404</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630497</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D28" t="n">
-        <v>2438.670847218161</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E28" t="n">
-        <v>2438.670847218161</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F28" t="n">
-        <v>2438.670847218161</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="G28" t="n">
-        <v>2438.670847218161</v>
+        <v>107.6811364303327</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532174</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388644</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6457,43 +6457,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558404</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630497</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>2438.670847218161</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.686731866303</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866303</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532174</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388644</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>800.6374272687975</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7028,16 +7028,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2798.451385364349</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C40" t="n">
-        <v>2629.515202436442</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D40" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4664.51516445694</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4481.660330111844</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4262.058865134785</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3972.983638478983</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>3718.299150273097</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>3428.881980236136</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>3200.892429338119</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>2980.099850194589</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8063,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>294.8344935184735</v>
       </c>
       <c r="M3" t="n">
-        <v>186.5911984019043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878365</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>114.1584408891644</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>65.31997266427238</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>110.0033420516642</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>75.37549921168142</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>45.37941682720927</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.32043864788469</v>
+        <v>126.5688841976866</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>73.65209508333264</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.0840080815017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.32043864788434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>36.51445555167193</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896400.4751691795</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
@@ -26331,13 +26331,13 @@
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
@@ -26346,16 +26346,16 @@
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403383</v>
+        <v>192627.1404403384</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099822</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819089</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.2351281078</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
@@ -26453,13 +26453,13 @@
         <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26484,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-810738.679296083</v>
+        <v>-810738.6792960826</v>
       </c>
       <c r="C6" t="n">
-        <v>304013.1042798372</v>
+        <v>304013.1042798373</v>
       </c>
       <c r="D6" t="n">
-        <v>144591.8342819449</v>
+        <v>144591.8342819448</v>
       </c>
       <c r="E6" t="n">
-        <v>88773.09781048483</v>
+        <v>88425.7185561283</v>
       </c>
       <c r="F6" t="n">
-        <v>414185.5596178403</v>
+        <v>413838.1803634834</v>
       </c>
       <c r="G6" t="n">
-        <v>414185.5596178401</v>
+        <v>413838.1803634833</v>
       </c>
       <c r="H6" t="n">
-        <v>414185.5596178404</v>
+        <v>413838.1803634832</v>
       </c>
       <c r="I6" t="n">
-        <v>414185.5596178402</v>
+        <v>413838.1803634833</v>
       </c>
       <c r="J6" t="n">
-        <v>246580.381807858</v>
+        <v>246233.0025535009</v>
       </c>
       <c r="K6" t="n">
-        <v>414185.5596178403</v>
+        <v>413838.1803634833</v>
       </c>
       <c r="L6" t="n">
-        <v>365891.5896096494</v>
+        <v>365544.2103552925</v>
       </c>
       <c r="M6" t="n">
-        <v>329130.5316823286</v>
+        <v>328783.1524279716</v>
       </c>
       <c r="N6" t="n">
-        <v>414185.5596178405</v>
+        <v>413838.1803634833</v>
       </c>
       <c r="O6" t="n">
-        <v>414185.5596178403</v>
+        <v>413838.180363483</v>
       </c>
       <c r="P6" t="n">
-        <v>414185.5596178403</v>
+        <v>413838.1803634832</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,31 +26792,31 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.7118084757595</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27017,40 +27017,40 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>190.8166233022545</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973553</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>190.8166233022542</v>
       </c>
-      <c r="E4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000381</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>190.8166233022545</v>
-      </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022545</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>346.5600491303957</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>261.3406630367471</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>77.61193515748761</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>171.4277212691393</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>182.6562381436654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>103.1262323924665</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193764</v>
       </c>
       <c r="X7" t="n">
-        <v>128.2032739989297</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>121.0536152320405</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>69.86658336854914</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.1921127789196</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,10 +28070,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>190.3966965679709</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28973,7 +28973,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>6.032981521760424e-12</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R5" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31393,10 +31393,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647489</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>616.5397119226047</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786837</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460043</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868571</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>246.9596973201444</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33903,13 +33903,13 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>151.9914336104081</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>592.5148541563236</v>
       </c>
       <c r="M3" t="n">
-        <v>553.5225306839449</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313211</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427306</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>477.9853321427306</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342392</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243176</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>108.4053175402702</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>20.64972152707474</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1654999.276886543</v>
+        <v>1656759.807189328</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9.991123614402589</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>64.98765364255827</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>69.63957399764126</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>213.4174454961642</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>90.02281227145906</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>20.32598300632786</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172146</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>285.8224305096709</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>5.400304892654581</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
-        <v>61.74094675585706</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184419</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8784673763403</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.799772605716168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>103.8784673763395</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>62.50448303558209</v>
       </c>
       <c r="E19" t="n">
-        <v>81.11398998229679</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>147.6895341487364</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004308</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
-        <v>13.72582864853728</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>74.96337793487972</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>126.926382450742</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>178.8076944857619</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>147.6895341487364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833856</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8767859460534</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C2" t="n">
-        <v>527.8767859460534</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="D2" t="n">
-        <v>527.8767859460534</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8767859460534</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>116.8908811564458</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,7 +4360,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4369,13 +4369,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460534</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>903.4321187182921</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C4" t="n">
-        <v>734.4959357903853</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D4" t="n">
-        <v>584.3792963780495</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>436.4662027956564</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>289.576255297746</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>121.5897906060246</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4488,52 +4488,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1420.872942805645</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.862713590079</v>
+        <v>1131.754605309482</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.862713590079</v>
+        <v>1131.754605309482</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.862713590079</v>
+        <v>1131.754605309482</v>
       </c>
       <c r="X4" t="n">
-        <v>1305.873162692062</v>
+        <v>903.765054411465</v>
       </c>
       <c r="Y4" t="n">
-        <v>1085.080583548532</v>
+        <v>682.9724752679349</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>844.329830759459</v>
+        <v>519.5572140912823</v>
       </c>
       <c r="C5" t="n">
-        <v>844.329830759459</v>
+        <v>519.5572140912823</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>519.5572140912823</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>519.5572140912823</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>512.6117133420788</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230815</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2541.808032434166</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2541.808032434166</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2288.226971698346</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1957.164084354775</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="W5" t="n">
-        <v>1604.395429084661</v>
+        <v>1669.762144392296</v>
       </c>
       <c r="X5" t="n">
-        <v>1230.929670823581</v>
+        <v>1296.296386131216</v>
       </c>
       <c r="Y5" t="n">
-        <v>1230.929670823581</v>
+        <v>906.157054155404</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4643,25 +4643,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380239</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694955</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576348</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312189</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1514.348043559526</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="C8" t="n">
-        <v>1514.348043559526</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1156.082344952776</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>770.2940923545314</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3320.150968182247</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3066.620491456084</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2735.557604112513</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2382.788948842398</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2009.323190581319</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>1619.183858605507</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1575.827088531452</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.827088531452</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.837537633435</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192584</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5108,31 +5108,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516139</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>365.9405071576772</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5509,34 +5509,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,55 +5649,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.8888553856862</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C19" t="n">
-        <v>639.9526724577793</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D19" t="n">
-        <v>489.8360330454435</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5706,19 +5706,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159259</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="20">
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,13 +6244,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>274.8772357154528</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>274.8772357154528</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>107.6811364303327</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6472,7 +6472,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,7 +6536,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
         <v>95.58405025273905</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D37" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>955.2822768769994</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>594.8179559048583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>594.8179559048583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7797,7 +7797,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>294.8344935184735</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013349</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878365</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.145255306345589e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.8635921600931</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>41.54258064659095</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659179</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>86.11098998263026</v>
       </c>
       <c r="E19" t="n">
-        <v>65.31997266427238</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9259388694759139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>110.003342051664</v>
       </c>
     </row>
     <row r="26">
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
-        <v>126.5688841976866</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>73.65209508333264</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>19.50758019582713</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>38.59775584152638</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.3204386478853</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>36.51445555167193</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691791</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.475169179</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="16">
@@ -26328,19 +26328,19 @@
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="I2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="J2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26352,10 +26352,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403384</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.549796580657131e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819083</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551158</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
         <v>88524.23512810787</v>
@@ -26432,25 +26432,25 @@
         <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756546</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-810738.6792960826</v>
+        <v>-810738.679296083</v>
       </c>
       <c r="C6" t="n">
-        <v>304013.1042798373</v>
+        <v>304013.104279837</v>
       </c>
       <c r="D6" t="n">
-        <v>144591.8342819448</v>
+        <v>144591.8342819455</v>
       </c>
       <c r="E6" t="n">
-        <v>88425.7185561283</v>
+        <v>88738.35988505004</v>
       </c>
       <c r="F6" t="n">
-        <v>413838.1803634834</v>
+        <v>414150.8216924046</v>
       </c>
       <c r="G6" t="n">
-        <v>413838.1803634833</v>
+        <v>414150.8216924036</v>
       </c>
       <c r="H6" t="n">
-        <v>413838.1803634832</v>
+        <v>414150.8216924043</v>
       </c>
       <c r="I6" t="n">
-        <v>413838.1803634833</v>
+        <v>414150.8216924045</v>
       </c>
       <c r="J6" t="n">
-        <v>246233.0025535009</v>
+        <v>246545.6438824218</v>
       </c>
       <c r="K6" t="n">
-        <v>413838.1803634833</v>
+        <v>414150.8216924045</v>
       </c>
       <c r="L6" t="n">
-        <v>365544.2103552925</v>
+        <v>365856.8516842138</v>
       </c>
       <c r="M6" t="n">
-        <v>328783.1524279716</v>
+        <v>329095.793756893</v>
       </c>
       <c r="N6" t="n">
-        <v>413838.1803634833</v>
+        <v>414150.8216924045</v>
       </c>
       <c r="O6" t="n">
-        <v>413838.180363483</v>
+        <v>414150.8216924045</v>
       </c>
       <c r="P6" t="n">
-        <v>413838.1803634832</v>
+        <v>414150.8216924046</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757595</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973547</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>344.6919180062804</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>346.5600491303957</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>77.61193515748761</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>7.33125050104772</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>321.524890501495</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.1262323924665</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193764</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>121.0536152320405</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>198.5176652469655</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
-        <v>190.3966965679709</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982905</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>592.5148541563236</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>230.8362312321895</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313211</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928737</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762722</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
